--- a/medicine/Enfance/Presse_jeunesse_en_France/Presse_jeunesse_en_France.xlsx
+++ b/medicine/Enfance/Presse_jeunesse_en_France/Presse_jeunesse_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La presse jeunesse s’adresse aux enfants de moins de 18 ans. 
-En 2014, en France, on dénombre près de trois cents magazines jeunesse[1] pour plus de 9 millions de lecteurs[2]. Le temps moyen consacré chaque semaine par les enfants à leurs magazines préférés va de 3 à 4 heures[2].
+En 2014, en France, on dénombre près de trois cents magazines jeunesse pour plus de 9 millions de lecteurs. Le temps moyen consacré chaque semaine par les enfants à leurs magazines préférés va de 3 à 4 heures.
 Dans la pratique, la presse jeunesse se répartit en quatre grandes catégories : 
 La presse éveil : jusqu’à 6 ans.
 La presse enfance : de 6 à 9 ans.
@@ -517,10 +529,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Même si une cinquantaine de magazines jeunesse sont créés chaque année[1], certains titres sont très anciens. Le Journal de Mickey a ainsi eu 80 ans en 2014 et Pomme d’Api 50 ans en 2016.
-C'est le 16 juillet 1949 qu'est adoptée la loi sur les publications destinées à la jeunesse[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Même si une cinquantaine de magazines jeunesse sont créés chaque année, certains titres sont très anciens. Le Journal de Mickey a ainsi eu 80 ans en 2014 et Pomme d’Api 50 ans en 2016.
+C'est le 16 juillet 1949 qu'est adoptée la loi sur les publications destinées à la jeunesse.
 </t>
         </is>
       </c>
@@ -549,23 +563,25 @@
           <t>Le Groupe de la Presse jeunesse du SEPM : LPJ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le groupe de la Presse jeunesse du SEPM (Syndicat des éditeurs de la presse magazine), « La Presse Jeunesse », est composé de quatorze éditeurs publiant soixante-neuf magazines[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le groupe de la Presse jeunesse du SEPM (Syndicat des éditeurs de la presse magazine), « La Presse Jeunesse », est composé de quatorze éditeurs publiant soixante-neuf magazines. 
 Il est ouvert à tous les anciens membres du Syndicat de la Presse des Jeunes et aux éditeurs jeunesse membres du SEPM. Il se veut un espace d’échanges entre tous les éditeurs de magazines jeunesse, quelle que soit leur taille, permettant d’aborder les problématiques communes : publicité, visibilité en kiosque, rapport à l’école, éducation aux média et à la citoyenneté.
-Il a pour objectif la mise en œuvre d’actions communes vis-à-vis des pouvoirs publics, des acteurs de la filière presse et du grand public. Chaque année, il organise le pôle presse (vente de magazines et animations à destination des scolaires, des professionnels et du grand public) au Salon du Livre et de la Presse Jeunesse de Montreuil, rendez-vous national de la littérature jeunesse, qui réunit plus de 160 000 visiteurs et 400 exposants[5].
+Il a pour objectif la mise en œuvre d’actions communes vis-à-vis des pouvoirs publics, des acteurs de la filière presse et du grand public. Chaque année, il organise le pôle presse (vente de magazines et animations à destination des scolaires, des professionnels et du grand public) au Salon du Livre et de la Presse Jeunesse de Montreuil, rendez-vous national de la littérature jeunesse, qui réunit plus de 160 000 visiteurs et 400 exposants.
 Les groupes de Presse membres du LPJ :
 Audiovisuel Éditions Mini Schools
 Bayard jeunesse
-Dupuis[6]
+Dupuis
 Éclaireuses et éclaireurs de France
 Éditions Faton
 Éditions Jibena
 Enrik B. éditions
 Société Alsacienne de Publications
-Fleurus presse[7]
+Fleurus presse
 Le Journal des enfants
-Milan Presse[8]
+Milan Presse
 Reworld Média France
 Ti-Racoonteur
 Unique heritage entertainment : Disney Hachette Presse</t>
@@ -596,24 +612,16 @@
           <t>La presse pour enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Légende du tableau
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légende du tableau
 Titre : titre de la publication.
 Éditeur (groupe) : l'éditeur publiant le titre de presse peut être la filiale d'un groupe de presse groupe dont le nom est précisé entre parenthèses.
 Âge : tranche d'âge visée par l'éditeur.
 Périodicité
-Diffusion : chiffres des ventes moyennes par numéro en France en 2005 (France payée 2005) publiés soit par l'OJD soit par les éditeurs.
-Presse généraliste
-Apprentissage de la lecture
-Presse documentaire et scientifique
-Presse d'actualité
-Presse de bande dessinée
-Presse religieuse
-Autres (à classer dans le tableau):
-Oskarpresse a mis en place son bimestriel Hugo et Lucas (30 000 exemplaires)
-Le magazine Capsule cosmique a cessé de paraître en juin 2006. Le magazine Grodada a cessé de paraître en 1996.
-</t>
+Diffusion : chiffres des ventes moyennes par numéro en France en 2005 (France payée 2005) publiés soit par l'OJD soit par les éditeurs.</t>
         </is>
       </c>
     </row>
@@ -638,10 +646,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>La presse pour enfants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Presse religieuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autres (à classer dans le tableau):
+Oskarpresse a mis en place son bimestriel Hugo et Lucas (30 000 exemplaires)
+Le magazine Capsule cosmique a cessé de paraître en juin 2006. Le magazine Grodada a cessé de paraître en 1996.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Presse_jeunesse_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Presse_jeunesse_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>La presse pour adolescents et jeunes adultes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Légende tableau
 Titre : titre de la publication.
@@ -655,31 +704,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Presse_jeunesse_en_France</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Presse_jeunesse_en_France</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disparus</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pilote
 Tintin
